--- a/docs/Administration/582_66B_mo_experience_multimedia_interactive_formulaire_emprunt.xlsx
+++ b/docs/Administration/582_66B_mo_experience_multimedia_interactive_formulaire_emprunt.xlsx
@@ -2243,8 +2243,8 @@
   <dimension ref="A1:K203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="12" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3526,7 +3526,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="109">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G85" s="104">
         <v>0</v>
@@ -3675,7 +3675,9 @@
       <c r="E96" s="6">
         <v>6</v>
       </c>
-      <c r="F96" s="106"/>
+      <c r="F96" s="106">
+        <v>1</v>
+      </c>
       <c r="G96" s="104"/>
     </row>
     <row r="97" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
@@ -3926,7 +3928,9 @@
       <c r="E113" s="6">
         <v>3</v>
       </c>
-      <c r="F113" s="106"/>
+      <c r="F113" s="106">
+        <v>1</v>
+      </c>
       <c r="G113" s="104"/>
     </row>
     <row r="114" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
@@ -5305,15 +5309,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010036A983072543384F9BCFE8C82479F37C" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="260ac4455f49819b1f7803ae5e501695">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9de65812-d31a-4375-88c2-e0618de13189" xmlns:ns3="89032030-40c4-4eb4-9593-726575b50101" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a8e30f348d6cea7fc97f735324fe25" ns2:_="" ns3:_="">
     <xsd:import namespace="9de65812-d31a-4375-88c2-e0618de13189"/>
@@ -5530,6 +5525,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555CA93E-D6A4-443B-9774-E366D1A67415}">
   <ds:schemaRefs>
@@ -5541,14 +5545,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF56F7A-9C3C-446C-9DCE-744CDD4E4429}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0102274-A80F-4BB3-B7A8-EC7F1E0F2078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5565,4 +5561,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF56F7A-9C3C-446C-9DCE-744CDD4E4429}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>